--- a/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelFileSample.xlsx
+++ b/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelFileSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophia\source\repos\WinFormSolution\WinFormGUI\WinFormSample\ReverseReference\RR18_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E32421-FDD2-4967-A658-3EAC7E365634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52960D81-E482-498E-8CB9-22E0AB6FDB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="9020" xr2:uid="{62AA21C9-05F6-49F8-91A3-ACF70B8983DA}"/>
   </bookViews>
@@ -33,10 +33,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>RR18_Excel</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InsertSample</t>
+  </si>
+  <si>
+    <t>C#逆引き</t>
   </si>
 </sst>
 </file>
@@ -400,15 +406,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165277DD-97A9-4851-AA72-A4E126031169}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelFileSample.xlsx
+++ b/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelFileSample.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophia\source\repos\WinFormSolution\WinFormGUI\WinFormSample\ReverseReference\RR18_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52960D81-E482-498E-8CB9-22E0AB6FDB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4206C39F-B694-463E-AE94-9AC58C1AFDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="9020" xr2:uid="{62AA21C9-05F6-49F8-91A3-ACF70B8983DA}"/>
+    <workbookView xWindow="350" yWindow="1250" windowWidth="14400" windowHeight="8900" xr2:uid="{62AA21C9-05F6-49F8-91A3-ACF70B8983DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -429,4 +432,43 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740EB789-8DCC-4323-855F-AC733A7E232F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9EF7C6-1E7C-42EC-9761-BE5F2990729A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC185BF-AE3B-426E-B3ED-D5480DA5BD00}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelFileSample.xlsx
+++ b/WinFormSample/ReverseReference/RR18_Excel/RR18_ExcelFileSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophia\source\repos\WinFormSolution\WinFormGUI\WinFormSample\ReverseReference\RR18_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4206C39F-B694-463E-AE94-9AC58C1AFDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7FBDB1-0345-4DF8-BF0A-94BF6C1182BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="1250" windowWidth="14400" windowHeight="8900" xr2:uid="{62AA21C9-05F6-49F8-91A3-ACF70B8983DA}"/>
+    <workbookView xWindow="250" yWindow="60" windowWidth="14400" windowHeight="8900" xr2:uid="{62AA21C9-05F6-49F8-91A3-ACF70B8983DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>RR18_Excel</t>
     <phoneticPr fontId="1"/>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>C#逆引き</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -436,12 +448,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740EB789-8DCC-4323-855F-AC733A7E232F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
